--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2702,28 +2702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2418.360081688319</v>
+        <v>2515.839545743172</v>
       </c>
       <c r="AB2" t="n">
-        <v>3308.906954283111</v>
+        <v>3442.282657493412</v>
       </c>
       <c r="AC2" t="n">
-        <v>2993.109518646284</v>
+        <v>3113.756031936163</v>
       </c>
       <c r="AD2" t="n">
-        <v>2418360.081688319</v>
+        <v>2515839.545743172</v>
       </c>
       <c r="AE2" t="n">
-        <v>3308906.954283111</v>
+        <v>3442282.657493412</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.036654741853328e-06</v>
+        <v>1.918082683598267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.65833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2993109.518646284</v>
+        <v>3113756.031936163</v>
       </c>
     </row>
     <row r="3">
@@ -2808,28 +2808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>785.266588127356</v>
+        <v>834.0489905820687</v>
       </c>
       <c r="AB3" t="n">
-        <v>1074.4363893927</v>
+        <v>1141.182624558945</v>
       </c>
       <c r="AC3" t="n">
-        <v>971.8936883700042</v>
+        <v>1032.269756530912</v>
       </c>
       <c r="AD3" t="n">
-        <v>785266.588127356</v>
+        <v>834048.9905820687</v>
       </c>
       <c r="AE3" t="n">
-        <v>1074436.389392701</v>
+        <v>1141182.624558945</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.960540821244987e-06</v>
+        <v>3.627513817179441e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.751041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>971893.6883700042</v>
+        <v>1032269.756530912</v>
       </c>
     </row>
     <row r="4">
@@ -2914,28 +2914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>577.8810268606567</v>
+        <v>614.5531695562628</v>
       </c>
       <c r="AB4" t="n">
-        <v>790.6823152623584</v>
+        <v>840.8587587592392</v>
       </c>
       <c r="AC4" t="n">
-        <v>715.2207048233172</v>
+        <v>760.6083789759367</v>
       </c>
       <c r="AD4" t="n">
-        <v>577881.0268606567</v>
+        <v>614553.1695562628</v>
       </c>
       <c r="AE4" t="n">
-        <v>790682.3152623584</v>
+        <v>840858.7587592392</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.303952763592683e-06</v>
+        <v>4.262915820724377e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.595833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>715220.7048233172</v>
+        <v>760608.3789759367</v>
       </c>
     </row>
     <row r="5">
@@ -3020,28 +3020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>497.000551120184</v>
+        <v>533.5021016151979</v>
       </c>
       <c r="AB5" t="n">
-        <v>680.0180801594844</v>
+        <v>729.9611118815185</v>
       </c>
       <c r="AC5" t="n">
-        <v>615.1181090004322</v>
+        <v>660.2946478704007</v>
       </c>
       <c r="AD5" t="n">
-        <v>497000.551120184</v>
+        <v>533502.101615198</v>
       </c>
       <c r="AE5" t="n">
-        <v>680018.0801594844</v>
+        <v>729961.1118815185</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.463258558428573e-06</v>
+        <v>4.557673249726532e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.169791666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>615118.1090004322</v>
+        <v>660294.6478704007</v>
       </c>
     </row>
     <row r="6">
@@ -3126,28 +3126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>497.030547441656</v>
+        <v>533.5320979366699</v>
       </c>
       <c r="AB6" t="n">
-        <v>680.0591224498668</v>
+        <v>730.0021541719008</v>
       </c>
       <c r="AC6" t="n">
-        <v>615.1552342722237</v>
+        <v>660.3317731421922</v>
       </c>
       <c r="AD6" t="n">
-        <v>497030.547441656</v>
+        <v>533532.0979366698</v>
       </c>
       <c r="AE6" t="n">
-        <v>680059.1224498667</v>
+        <v>730002.1541719008</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.466613900261198e-06</v>
+        <v>4.563881510593793e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.160416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>615155.2342722237</v>
+        <v>660331.7731421922</v>
       </c>
     </row>
     <row r="7">
@@ -3232,28 +3232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>497.8983963686197</v>
+        <v>534.3999468636337</v>
       </c>
       <c r="AB7" t="n">
-        <v>681.2465516385313</v>
+        <v>731.1895833605652</v>
       </c>
       <c r="AC7" t="n">
-        <v>616.2293368856891</v>
+        <v>661.4058757556577</v>
       </c>
       <c r="AD7" t="n">
-        <v>497898.3963686198</v>
+        <v>534399.9468636337</v>
       </c>
       <c r="AE7" t="n">
-        <v>681246.5516385313</v>
+        <v>731189.5833605651</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.470698664231349e-06</v>
+        <v>4.57143939338872e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.151041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>616229.3368856892</v>
+        <v>661405.8757556577</v>
       </c>
     </row>
   </sheetData>
@@ -3529,28 +3529,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1428.816335471264</v>
+        <v>1499.228016066975</v>
       </c>
       <c r="AB2" t="n">
-        <v>1954.969545119723</v>
+        <v>2051.309912854888</v>
       </c>
       <c r="AC2" t="n">
-        <v>1768.389995550485</v>
+        <v>1855.535773803562</v>
       </c>
       <c r="AD2" t="n">
-        <v>1428816.335471264</v>
+        <v>1499228.016066975</v>
       </c>
       <c r="AE2" t="n">
-        <v>1954969.545119723</v>
+        <v>2051309.912854888</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.377253933197642e-06</v>
+        <v>2.625258551577734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.41458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1768389.995550485</v>
+        <v>1855535.773803562</v>
       </c>
     </row>
     <row r="3">
@@ -3635,28 +3635,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>599.4379232630159</v>
+        <v>634.7291491697187</v>
       </c>
       <c r="AB3" t="n">
-        <v>820.1774119432155</v>
+        <v>868.4644241677698</v>
       </c>
       <c r="AC3" t="n">
-        <v>741.9008308735818</v>
+        <v>785.5793984226721</v>
       </c>
       <c r="AD3" t="n">
-        <v>599437.9232630159</v>
+        <v>634729.1491697186</v>
       </c>
       <c r="AE3" t="n">
-        <v>820177.4119432155</v>
+        <v>868464.4241677698</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.235207977710967e-06</v>
+        <v>4.260651370525731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.033333333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>741900.8308735817</v>
+        <v>785579.3984226721</v>
       </c>
     </row>
     <row r="4">
@@ -3741,28 +3741,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>464.989490545674</v>
+        <v>500.1953755978051</v>
       </c>
       <c r="AB4" t="n">
-        <v>636.2191348531173</v>
+        <v>684.3893799554741</v>
       </c>
       <c r="AC4" t="n">
-        <v>575.499273561899</v>
+        <v>619.0722180790506</v>
       </c>
       <c r="AD4" t="n">
-        <v>464989.490545674</v>
+        <v>500195.3755978051</v>
       </c>
       <c r="AE4" t="n">
-        <v>636219.1348531173</v>
+        <v>684389.3799554741</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.501724572717217e-06</v>
+        <v>4.768673132753024e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.283333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>575499.2735618991</v>
+        <v>619072.2180790505</v>
       </c>
     </row>
     <row r="5">
@@ -3847,28 +3847,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>466.0115490732305</v>
+        <v>501.2174341253617</v>
       </c>
       <c r="AB5" t="n">
-        <v>637.6175604205602</v>
+        <v>685.787805522917</v>
       </c>
       <c r="AC5" t="n">
-        <v>576.7642353558878</v>
+        <v>620.3371798730393</v>
       </c>
       <c r="AD5" t="n">
-        <v>466011.5490732305</v>
+        <v>501217.4341253617</v>
       </c>
       <c r="AE5" t="n">
-        <v>637617.5604205602</v>
+        <v>685787.805522917</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.503988303705379e-06</v>
+        <v>4.772988153383495e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.278125</v>
       </c>
       <c r="AH5" t="n">
-        <v>576764.2353558878</v>
+        <v>620337.1798730392</v>
       </c>
     </row>
     <row r="6">
@@ -3953,28 +3953,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>467.0543426657509</v>
+        <v>502.2602277178821</v>
       </c>
       <c r="AB6" t="n">
-        <v>639.0443566186531</v>
+        <v>687.2146017210097</v>
       </c>
       <c r="AC6" t="n">
-        <v>578.0548601273557</v>
+        <v>621.6278046445071</v>
       </c>
       <c r="AD6" t="n">
-        <v>467054.3426657509</v>
+        <v>502260.2277178821</v>
       </c>
       <c r="AE6" t="n">
-        <v>639044.3566186531</v>
+        <v>687214.6017210097</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.507912104084859e-06</v>
+        <v>4.780467522476309e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.26875</v>
       </c>
       <c r="AH6" t="n">
-        <v>578054.8601273557</v>
+        <v>621627.8046445071</v>
       </c>
     </row>
   </sheetData>
@@ -4250,28 +4250,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>431.0261268992002</v>
+        <v>462.4165438813239</v>
       </c>
       <c r="AB2" t="n">
-        <v>589.7489623541566</v>
+        <v>632.6987157165578</v>
       </c>
       <c r="AC2" t="n">
-        <v>533.4641491049423</v>
+        <v>572.3148382867935</v>
       </c>
       <c r="AD2" t="n">
-        <v>431026.1268992001</v>
+        <v>462416.5438813239</v>
       </c>
       <c r="AE2" t="n">
-        <v>589748.9623541565</v>
+        <v>632698.7157165578</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.439605012702978e-06</v>
+        <v>5.195720225267063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.190625</v>
       </c>
       <c r="AH2" t="n">
-        <v>533464.1491049423</v>
+        <v>572314.8382867934</v>
       </c>
     </row>
     <row r="3">
@@ -4356,28 +4356,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>423.277743074779</v>
+        <v>454.6681600569027</v>
       </c>
       <c r="AB3" t="n">
-        <v>579.1472817710147</v>
+        <v>622.0970351334159</v>
       </c>
       <c r="AC3" t="n">
-        <v>523.8742780371034</v>
+        <v>562.7249672189546</v>
       </c>
       <c r="AD3" t="n">
-        <v>423277.743074779</v>
+        <v>454668.1600569027</v>
       </c>
       <c r="AE3" t="n">
-        <v>579147.2817710147</v>
+        <v>622097.0351334159</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.472948133605524e-06</v>
+        <v>5.266732346796908e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.09375</v>
       </c>
       <c r="AH3" t="n">
-        <v>523874.2780371034</v>
+        <v>562724.9672189546</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>426.3135295630681</v>
+        <v>457.7039465451918</v>
       </c>
       <c r="AB4" t="n">
-        <v>583.3009787737393</v>
+        <v>626.2507321361405</v>
       </c>
       <c r="AC4" t="n">
-        <v>527.6315520276385</v>
+        <v>566.4822412094895</v>
       </c>
       <c r="AD4" t="n">
-        <v>426313.5295630681</v>
+        <v>457703.9465451918</v>
       </c>
       <c r="AE4" t="n">
-        <v>583300.9787737393</v>
+        <v>626250.7321361406</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.472948133605524e-06</v>
+        <v>5.266732346796908e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.09375</v>
       </c>
       <c r="AH4" t="n">
-        <v>527631.5520276384</v>
+        <v>566482.2412094895</v>
       </c>
     </row>
   </sheetData>
@@ -4759,28 +4759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>658.8305443251053</v>
+        <v>702.6324771638862</v>
       </c>
       <c r="AB2" t="n">
-        <v>901.4410162978818</v>
+        <v>961.3727532127962</v>
       </c>
       <c r="AC2" t="n">
-        <v>815.4087508828237</v>
+        <v>869.6206869412997</v>
       </c>
       <c r="AD2" t="n">
-        <v>658830.5443251053</v>
+        <v>702632.4771638862</v>
       </c>
       <c r="AE2" t="n">
-        <v>901441.0162978818</v>
+        <v>961372.7532127962</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.036980693981612e-06</v>
+        <v>4.135775057503983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.238541666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>815408.7508828237</v>
+        <v>869620.6869412997</v>
       </c>
     </row>
     <row r="3">
@@ -4865,28 +4865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>423.8591638765329</v>
+        <v>467.6610072067628</v>
       </c>
       <c r="AB3" t="n">
-        <v>579.9428073624499</v>
+        <v>639.874421807816</v>
       </c>
       <c r="AC3" t="n">
-        <v>524.5938797826192</v>
+        <v>578.8057050598687</v>
       </c>
       <c r="AD3" t="n">
-        <v>423859.1638765329</v>
+        <v>467661.0072067628</v>
       </c>
       <c r="AE3" t="n">
-        <v>579942.8073624499</v>
+        <v>639874.421807816</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.524154817565952e-06</v>
+        <v>5.124906959899747e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.647916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>524593.8797826192</v>
+        <v>578805.7050598687</v>
       </c>
     </row>
     <row r="4">
@@ -4971,28 +4971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>425.3335957053308</v>
+        <v>469.1354390355606</v>
       </c>
       <c r="AB4" t="n">
-        <v>581.9601900379528</v>
+        <v>641.8918044833187</v>
       </c>
       <c r="AC4" t="n">
-        <v>526.4187262869864</v>
+        <v>580.6305515642358</v>
       </c>
       <c r="AD4" t="n">
-        <v>425333.5957053308</v>
+        <v>469135.4390355606</v>
       </c>
       <c r="AE4" t="n">
-        <v>581960.1900379527</v>
+        <v>641891.8044833187</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.527537971201954e-06</v>
+        <v>5.131775931444162e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.639583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>526418.7262869864</v>
+        <v>580630.5515642358</v>
       </c>
     </row>
   </sheetData>
@@ -5268,28 +5268,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>423.497695286456</v>
+        <v>463.68364847443</v>
       </c>
       <c r="AB2" t="n">
-        <v>579.4482300906379</v>
+        <v>634.432424121555</v>
       </c>
       <c r="AC2" t="n">
-        <v>524.1465042714854</v>
+        <v>573.8830839948927</v>
       </c>
       <c r="AD2" t="n">
-        <v>423497.695286456</v>
+        <v>463683.64847443</v>
       </c>
       <c r="AE2" t="n">
-        <v>579448.2300906379</v>
+        <v>634432.4241215549</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.35971241117512e-06</v>
+        <v>5.254618631123003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.720833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>524146.5042714854</v>
+        <v>573883.0839948927</v>
       </c>
     </row>
     <row r="3">
@@ -5374,28 +5374,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>425.5658577320415</v>
+        <v>465.7518109200154</v>
       </c>
       <c r="AB3" t="n">
-        <v>582.2779811895756</v>
+        <v>637.2621752204926</v>
       </c>
       <c r="AC3" t="n">
-        <v>526.706187897121</v>
+        <v>576.4427676205283</v>
       </c>
       <c r="AD3" t="n">
-        <v>425565.8577320415</v>
+        <v>465751.8109200154</v>
       </c>
       <c r="AE3" t="n">
-        <v>582277.9811895756</v>
+        <v>637262.1752204926</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.36478442866134e-06</v>
+        <v>5.265913023377862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.704166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>526706.1878971211</v>
+        <v>576442.7676205283</v>
       </c>
     </row>
   </sheetData>
@@ -5671,28 +5671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1626.422942499154</v>
+        <v>1697.601073118684</v>
       </c>
       <c r="AB2" t="n">
-        <v>2225.343622643512</v>
+        <v>2322.732681114655</v>
       </c>
       <c r="AC2" t="n">
-        <v>2012.959950587805</v>
+        <v>2101.054334004865</v>
       </c>
       <c r="AD2" t="n">
-        <v>1626422.942499154</v>
+        <v>1697601.073118684</v>
       </c>
       <c r="AE2" t="n">
-        <v>2225343.622643512</v>
+        <v>2322732.681114655</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.286811977215051e-06</v>
+        <v>2.433057334866925e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.10729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2012959.950587805</v>
+        <v>2101054.334004865</v>
       </c>
     </row>
     <row r="3">
@@ -5777,28 +5777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>643.4067607269131</v>
+        <v>679.0385412182396</v>
       </c>
       <c r="AB3" t="n">
-        <v>880.3375151295263</v>
+        <v>929.0904891609712</v>
       </c>
       <c r="AC3" t="n">
-        <v>796.3193382470262</v>
+        <v>840.4193968621387</v>
       </c>
       <c r="AD3" t="n">
-        <v>643406.7607269131</v>
+        <v>679038.5412182396</v>
       </c>
       <c r="AE3" t="n">
-        <v>880337.5151295263</v>
+        <v>929090.4891609711</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.162783356869695e-06</v>
+        <v>4.089312194271339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>796319.3382470262</v>
+        <v>840419.3968621386</v>
       </c>
     </row>
     <row r="4">
@@ -5883,28 +5883,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>480.6934010443428</v>
+        <v>516.2398406810977</v>
       </c>
       <c r="AB4" t="n">
-        <v>657.7059180050312</v>
+        <v>706.3421249142783</v>
       </c>
       <c r="AC4" t="n">
-        <v>594.9353882866837</v>
+        <v>638.9298238698574</v>
       </c>
       <c r="AD4" t="n">
-        <v>480693.4010443428</v>
+        <v>516239.8406810976</v>
       </c>
       <c r="AE4" t="n">
-        <v>657705.9180050312</v>
+        <v>706342.1249142783</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.47416672931992e-06</v>
+        <v>4.678064561913476e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>594935.3882866837</v>
+        <v>638929.8238698574</v>
       </c>
     </row>
     <row r="5">
@@ -5989,28 +5989,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>472.2264204693636</v>
+        <v>507.7728601061186</v>
       </c>
       <c r="AB5" t="n">
-        <v>646.1210216455248</v>
+        <v>694.7572285547717</v>
       </c>
       <c r="AC5" t="n">
-        <v>584.4561381762244</v>
+        <v>628.450573759398</v>
       </c>
       <c r="AD5" t="n">
-        <v>472226.4204693636</v>
+        <v>507772.8601061185</v>
       </c>
       <c r="AE5" t="n">
-        <v>646121.0216455248</v>
+        <v>694757.2285547717</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.499442324874237e-06</v>
+        <v>4.725854739690383e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.233333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>584456.1381762244</v>
+        <v>628450.5737593981</v>
       </c>
     </row>
     <row r="6">
@@ -6095,28 +6095,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>473.8003509052439</v>
+        <v>509.3467905419988</v>
       </c>
       <c r="AB6" t="n">
-        <v>648.2745427048063</v>
+        <v>696.9107496140534</v>
       </c>
       <c r="AC6" t="n">
-        <v>586.404130208094</v>
+        <v>630.3985657912676</v>
       </c>
       <c r="AD6" t="n">
-        <v>473800.3509052439</v>
+        <v>509346.7905419988</v>
       </c>
       <c r="AE6" t="n">
-        <v>648274.5427048063</v>
+        <v>696910.7496140534</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.499591884611244e-06</v>
+        <v>4.726137521807406e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.232291666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>586404.130208094</v>
+        <v>630398.5657912677</v>
       </c>
     </row>
     <row r="7">
@@ -6201,28 +6201,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>474.5432479373537</v>
+        <v>510.0896875741086</v>
       </c>
       <c r="AB7" t="n">
-        <v>649.2910071984429</v>
+        <v>697.9272141076899</v>
       </c>
       <c r="AC7" t="n">
-        <v>587.3235847570749</v>
+        <v>631.3180203402484</v>
       </c>
       <c r="AD7" t="n">
-        <v>474543.2479373537</v>
+        <v>510089.6875741086</v>
       </c>
       <c r="AE7" t="n">
-        <v>649291.0071984429</v>
+        <v>697927.2141076899</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.503629997510455e-06</v>
+        <v>4.73377263896703e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.222916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>587323.5847570748</v>
+        <v>631318.0203402484</v>
       </c>
     </row>
   </sheetData>
@@ -6498,28 +6498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>440.534487525264</v>
+        <v>479.6475921184385</v>
       </c>
       <c r="AB2" t="n">
-        <v>602.7587208420026</v>
+        <v>656.2749960947754</v>
       </c>
       <c r="AC2" t="n">
-        <v>545.2322745020191</v>
+        <v>593.6410315552313</v>
       </c>
       <c r="AD2" t="n">
-        <v>440534.487525264</v>
+        <v>479647.5921184384</v>
       </c>
       <c r="AE2" t="n">
-        <v>602758.7208420027</v>
+        <v>656274.9960947754</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.259526412674825e-06</v>
+        <v>5.180115120342517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.252083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>545232.274502019</v>
+        <v>593641.0315552313</v>
       </c>
     </row>
     <row r="3">
@@ -6604,28 +6604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>444.3132944266757</v>
+        <v>483.4263990198502</v>
       </c>
       <c r="AB3" t="n">
-        <v>607.9290511537089</v>
+        <v>661.4453264064816</v>
       </c>
       <c r="AC3" t="n">
-        <v>549.9091557453802</v>
+        <v>598.3179127985925</v>
       </c>
       <c r="AD3" t="n">
-        <v>444313.2944266757</v>
+        <v>483426.3990198502</v>
       </c>
       <c r="AE3" t="n">
-        <v>607929.0511537088</v>
+        <v>661445.3264064817</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.261674251470143e-06</v>
+        <v>5.185039184145124e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.24375</v>
       </c>
       <c r="AH3" t="n">
-        <v>549909.1557453802</v>
+        <v>598317.9127985925</v>
       </c>
     </row>
   </sheetData>
@@ -6901,28 +6901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>978.0648258994607</v>
+        <v>1035.041279232746</v>
       </c>
       <c r="AB2" t="n">
-        <v>1338.231443970446</v>
+        <v>1416.189141044764</v>
       </c>
       <c r="AC2" t="n">
-        <v>1210.512513177533</v>
+        <v>1281.030037057394</v>
       </c>
       <c r="AD2" t="n">
-        <v>978064.8258994607</v>
+        <v>1035041.279232746</v>
       </c>
       <c r="AE2" t="n">
-        <v>1338231.443970446</v>
+        <v>1416189.141044764</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.674934247851368e-06</v>
+        <v>3.282847978307618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.670833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1210512.513177533</v>
+        <v>1281030.037057394</v>
       </c>
     </row>
     <row r="3">
@@ -7007,28 +7007,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>459.8124907873289</v>
+        <v>494.0837036418716</v>
       </c>
       <c r="AB3" t="n">
-        <v>629.1357353906394</v>
+        <v>676.0271207574285</v>
       </c>
       <c r="AC3" t="n">
-        <v>569.0919038025065</v>
+        <v>611.5080411623619</v>
       </c>
       <c r="AD3" t="n">
-        <v>459812.4907873289</v>
+        <v>494083.7036418716</v>
       </c>
       <c r="AE3" t="n">
-        <v>629135.7353906394</v>
+        <v>676027.1207574285</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.477727185249865e-06</v>
+        <v>4.856311041063117e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.537500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>569091.9038025065</v>
+        <v>611508.0411623619</v>
       </c>
     </row>
     <row r="4">
@@ -7113,28 +7113,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>442.4257278982475</v>
+        <v>476.5263485521979</v>
       </c>
       <c r="AB4" t="n">
-        <v>605.3463993559552</v>
+        <v>652.0043729478973</v>
       </c>
       <c r="AC4" t="n">
-        <v>547.5729886104297</v>
+        <v>589.777990687634</v>
       </c>
       <c r="AD4" t="n">
-        <v>442425.7278982475</v>
+        <v>476526.3485521979</v>
       </c>
       <c r="AE4" t="n">
-        <v>605346.3993559552</v>
+        <v>652004.3729478973</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.52810582397098e-06</v>
+        <v>4.95505247672703e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH4" t="n">
-        <v>547572.9886104297</v>
+        <v>589777.990687634</v>
       </c>
     </row>
     <row r="5">
@@ -7219,28 +7219,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>444.6258511788808</v>
+        <v>478.7264718328311</v>
       </c>
       <c r="AB5" t="n">
-        <v>608.3567050911065</v>
+        <v>655.0146786830486</v>
       </c>
       <c r="AC5" t="n">
-        <v>550.2959949912088</v>
+        <v>592.500997068413</v>
       </c>
       <c r="AD5" t="n">
-        <v>444625.8511788808</v>
+        <v>478726.4718328311</v>
       </c>
       <c r="AE5" t="n">
-        <v>608356.7050911065</v>
+        <v>655014.6786830486</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.528261313596662e-06</v>
+        <v>4.955357234244511e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH5" t="n">
-        <v>550295.9949912088</v>
+        <v>592500.997068413</v>
       </c>
     </row>
   </sheetData>
@@ -7516,28 +7516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1258.120332433512</v>
+        <v>1327.910255174968</v>
       </c>
       <c r="AB2" t="n">
-        <v>1721.415743187299</v>
+        <v>1816.905394396251</v>
       </c>
       <c r="AC2" t="n">
-        <v>1557.126240679672</v>
+        <v>1643.502493597809</v>
       </c>
       <c r="AD2" t="n">
-        <v>1258120.332433512</v>
+        <v>1327910.255174968</v>
       </c>
       <c r="AE2" t="n">
-        <v>1721415.743187299</v>
+        <v>1816905.394396251</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.470166451552149e-06</v>
+        <v>2.826693566331838e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.79479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1557126.240679672</v>
+        <v>1643502.493597809</v>
       </c>
     </row>
     <row r="3">
@@ -7622,28 +7622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>543.0967341550104</v>
+        <v>589.5949023644572</v>
       </c>
       <c r="AB3" t="n">
-        <v>743.0889114078036</v>
+        <v>806.7097565063726</v>
       </c>
       <c r="AC3" t="n">
-        <v>672.1695486348797</v>
+        <v>729.7185095696581</v>
       </c>
       <c r="AD3" t="n">
-        <v>543096.7341550104</v>
+        <v>589594.9023644571</v>
       </c>
       <c r="AE3" t="n">
-        <v>743088.9114078037</v>
+        <v>806709.7565063726</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.314179108712656e-06</v>
+        <v>4.449479302858096e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.857291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>672169.5486348796</v>
+        <v>729718.5095696581</v>
       </c>
     </row>
     <row r="4">
@@ -7728,28 +7728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>457.7111479106319</v>
+        <v>492.563528362625</v>
       </c>
       <c r="AB4" t="n">
-        <v>626.2605853620377</v>
+        <v>673.9471498749633</v>
       </c>
       <c r="AC4" t="n">
-        <v>566.4911540573361</v>
+        <v>609.6265797816617</v>
       </c>
       <c r="AD4" t="n">
-        <v>457711.1479106319</v>
+        <v>492563.528362625</v>
       </c>
       <c r="AE4" t="n">
-        <v>626260.5853620376</v>
+        <v>673947.1498749633</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.510252085204638e-06</v>
+        <v>4.826469418906705e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.321874999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>566491.154057336</v>
+        <v>609626.5797816617</v>
       </c>
     </row>
     <row r="5">
@@ -7834,28 +7834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>458.5784855727556</v>
+        <v>493.4308660247488</v>
       </c>
       <c r="AB5" t="n">
-        <v>627.4473150155924</v>
+        <v>675.1338795285182</v>
       </c>
       <c r="AC5" t="n">
-        <v>567.564623898341</v>
+        <v>610.7000496226667</v>
       </c>
       <c r="AD5" t="n">
-        <v>458578.4855727556</v>
+        <v>493430.8660247488</v>
       </c>
       <c r="AE5" t="n">
-        <v>627447.3150155924</v>
+        <v>675133.8795285182</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.514365504291882e-06</v>
+        <v>4.834378302460173e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.311458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>567564.623898341</v>
+        <v>610700.0496226667</v>
       </c>
     </row>
     <row r="6">
@@ -7940,28 +7940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>459.3895741207421</v>
+        <v>494.2419545727353</v>
       </c>
       <c r="AB6" t="n">
-        <v>628.5570821496487</v>
+        <v>676.2436466625745</v>
       </c>
       <c r="AC6" t="n">
-        <v>568.5684764146911</v>
+        <v>611.7039021390169</v>
       </c>
       <c r="AD6" t="n">
-        <v>459389.5741207421</v>
+        <v>494241.9545727353</v>
       </c>
       <c r="AE6" t="n">
-        <v>628557.0821496488</v>
+        <v>676243.6466625745</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.51817422566896e-06</v>
+        <v>4.841701342787457e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>568568.4764146911</v>
+        <v>611703.9021390169</v>
       </c>
     </row>
   </sheetData>
@@ -8237,28 +8237,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2104.043496677949</v>
+        <v>2188.693484753537</v>
       </c>
       <c r="AB2" t="n">
-        <v>2878.845136002665</v>
+        <v>2994.66698418159</v>
       </c>
       <c r="AC2" t="n">
-        <v>2604.092196707096</v>
+        <v>2708.860170252809</v>
       </c>
       <c r="AD2" t="n">
-        <v>2104043.49667795</v>
+        <v>2188693.484753537</v>
       </c>
       <c r="AE2" t="n">
-        <v>2878845.136002665</v>
+        <v>2994666.98418159</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.117731860307013e-06</v>
+        <v>2.082249679787105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.70416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2604092.196707096</v>
+        <v>2708860.170252808</v>
       </c>
     </row>
     <row r="3">
@@ -8343,28 +8343,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>736.1422198095638</v>
+        <v>784.5136415670419</v>
       </c>
       <c r="AB3" t="n">
-        <v>1007.222261446121</v>
+        <v>1073.406174691221</v>
       </c>
       <c r="AC3" t="n">
-        <v>911.0943824590254</v>
+        <v>970.9617959137186</v>
       </c>
       <c r="AD3" t="n">
-        <v>736142.2198095638</v>
+        <v>784513.6415670419</v>
       </c>
       <c r="AE3" t="n">
-        <v>1007222.261446121</v>
+        <v>1073406.174691221</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.025475416901565e-06</v>
+        <v>3.773307076619865e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>911094.3824590254</v>
+        <v>970961.7959137185</v>
       </c>
     </row>
     <row r="4">
@@ -8449,28 +8449,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>543.6494993274803</v>
+        <v>579.8428142995684</v>
       </c>
       <c r="AB4" t="n">
-        <v>743.8452291030553</v>
+        <v>793.3665193842306</v>
       </c>
       <c r="AC4" t="n">
-        <v>672.8536844307949</v>
+        <v>717.6487322711023</v>
       </c>
       <c r="AD4" t="n">
-        <v>543649.4993274803</v>
+        <v>579842.8142995684</v>
       </c>
       <c r="AE4" t="n">
-        <v>743845.2291030553</v>
+        <v>793366.5193842306</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.361927264866628e-06</v>
+        <v>4.400091350709182e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.485416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>672853.6844307949</v>
+        <v>717648.7322711023</v>
       </c>
     </row>
     <row r="5">
@@ -8555,28 +8555,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>487.1811582518428</v>
+        <v>523.3744732239309</v>
       </c>
       <c r="AB5" t="n">
-        <v>666.5827536359805</v>
+        <v>716.1040439171559</v>
       </c>
       <c r="AC5" t="n">
-        <v>602.9650311837322</v>
+        <v>647.7600790240397</v>
       </c>
       <c r="AD5" t="n">
-        <v>487181.1582518428</v>
+        <v>523374.4732239308</v>
       </c>
       <c r="AE5" t="n">
-        <v>666582.7536359804</v>
+        <v>716104.0439171558</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.4780972648196e-06</v>
+        <v>4.616507249542469e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.181250000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>602965.0311837322</v>
+        <v>647760.0790240397</v>
       </c>
     </row>
     <row r="6">
@@ -8661,28 +8661,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>489.1206725975769</v>
+        <v>525.3139875696648</v>
       </c>
       <c r="AB6" t="n">
-        <v>669.2364827291478</v>
+        <v>718.757773010323</v>
       </c>
       <c r="AC6" t="n">
-        <v>605.3654920967799</v>
+        <v>650.1605399370874</v>
       </c>
       <c r="AD6" t="n">
-        <v>489120.6725975769</v>
+        <v>525313.9875696648</v>
       </c>
       <c r="AE6" t="n">
-        <v>669236.4827291479</v>
+        <v>718757.7730103231</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.478244315452451e-06</v>
+        <v>4.616781193718207e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.181250000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>605365.4920967799</v>
+        <v>650160.5399370873</v>
       </c>
     </row>
     <row r="7">
@@ -8767,28 +8767,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>489.7432285880346</v>
+        <v>525.9365435601227</v>
       </c>
       <c r="AB7" t="n">
-        <v>670.088291300524</v>
+        <v>719.6095815816994</v>
       </c>
       <c r="AC7" t="n">
-        <v>606.1360052536248</v>
+        <v>650.9310530939323</v>
       </c>
       <c r="AD7" t="n">
-        <v>489743.2285880346</v>
+        <v>525936.5435601227</v>
       </c>
       <c r="AE7" t="n">
-        <v>670088.291300524</v>
+        <v>719609.5815816994</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.482361733172304e-06</v>
+        <v>4.62445163063888e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.170833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>606136.0052536249</v>
+        <v>650931.0530939323</v>
       </c>
     </row>
   </sheetData>
@@ -9064,28 +9064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>751.2701186025073</v>
+        <v>806.7871951934809</v>
       </c>
       <c r="AB2" t="n">
-        <v>1027.920919970419</v>
+        <v>1103.881833402749</v>
       </c>
       <c r="AC2" t="n">
-        <v>929.8175900645136</v>
+        <v>998.5289005306743</v>
       </c>
       <c r="AD2" t="n">
-        <v>751270.1186025073</v>
+        <v>806787.1951934809</v>
       </c>
       <c r="AE2" t="n">
-        <v>1027920.919970419</v>
+        <v>1103881.833402749</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.907603713433511e-06</v>
+        <v>3.823786597897663e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.686458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>929817.5900645136</v>
+        <v>998528.9005306743</v>
       </c>
     </row>
     <row r="3">
@@ -9170,28 +9170,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>430.4692669090011</v>
+        <v>463.9160582308998</v>
       </c>
       <c r="AB3" t="n">
-        <v>588.9870419486372</v>
+        <v>634.7504174035519</v>
       </c>
       <c r="AC3" t="n">
-        <v>532.7749453135638</v>
+        <v>574.1707284443622</v>
       </c>
       <c r="AD3" t="n">
-        <v>430469.2669090011</v>
+        <v>463916.0582308998</v>
       </c>
       <c r="AE3" t="n">
-        <v>588987.0419486372</v>
+        <v>634750.4174035519</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.523426745265811e-06</v>
+        <v>5.058202236331642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.567708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>532774.9453135638</v>
+        <v>574170.7284443622</v>
       </c>
     </row>
     <row r="4">
@@ -9276,28 +9276,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>430.5751182711883</v>
+        <v>464.0219095930871</v>
       </c>
       <c r="AB4" t="n">
-        <v>589.1318724522143</v>
+        <v>634.8952479071289</v>
       </c>
       <c r="AC4" t="n">
-        <v>532.9059533971504</v>
+        <v>574.3017365279488</v>
       </c>
       <c r="AD4" t="n">
-        <v>430575.1182711883</v>
+        <v>464021.909593087</v>
       </c>
       <c r="AE4" t="n">
-        <v>589131.8724522144</v>
+        <v>634895.2479071289</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.530585628353503e-06</v>
+        <v>5.072552198545419e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.548958333333332</v>
       </c>
       <c r="AH4" t="n">
-        <v>532905.9533971504</v>
+        <v>574301.7365279489</v>
       </c>
     </row>
   </sheetData>
@@ -9573,28 +9573,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>480.60726302216</v>
+        <v>523.017666849056</v>
       </c>
       <c r="AB2" t="n">
-        <v>657.5880601629393</v>
+        <v>715.6158456938658</v>
       </c>
       <c r="AC2" t="n">
-        <v>594.8287786316268</v>
+        <v>647.3184737539899</v>
       </c>
       <c r="AD2" t="n">
-        <v>480607.26302216</v>
+        <v>523017.666849056</v>
       </c>
       <c r="AE2" t="n">
-        <v>657588.0601629394</v>
+        <v>715615.8456938658</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.338904050057657e-06</v>
+        <v>4.893133542907823e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.380208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>594828.7786316269</v>
+        <v>647318.4737539899</v>
       </c>
     </row>
     <row r="3">
@@ -9679,28 +9679,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>415.2403657295202</v>
+        <v>457.7360209024368</v>
       </c>
       <c r="AB3" t="n">
-        <v>568.1501875031684</v>
+        <v>626.2946176867441</v>
       </c>
       <c r="AC3" t="n">
-        <v>513.9267310116617</v>
+        <v>566.521938384737</v>
       </c>
       <c r="AD3" t="n">
-        <v>415240.3657295202</v>
+        <v>457736.0209024368</v>
       </c>
       <c r="AE3" t="n">
-        <v>568150.1875031684</v>
+        <v>626294.6176867441</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.497990622826209e-06</v>
+        <v>5.225952602082508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.910416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>513926.7310116616</v>
+        <v>566521.938384737</v>
       </c>
     </row>
     <row r="4">
@@ -9785,28 +9785,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>417.1864294191477</v>
+        <v>459.6820845920641</v>
       </c>
       <c r="AB4" t="n">
-        <v>570.8128776975874</v>
+        <v>628.9573078811629</v>
       </c>
       <c r="AC4" t="n">
-        <v>516.3352977910343</v>
+        <v>568.9305051641098</v>
       </c>
       <c r="AD4" t="n">
-        <v>417186.4294191477</v>
+        <v>459682.0845920641</v>
       </c>
       <c r="AE4" t="n">
-        <v>570812.8776975874</v>
+        <v>628957.307881163</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.500973496065619e-06</v>
+        <v>5.232192959442034e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.902083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>516335.2977910344</v>
+        <v>568930.5051641099</v>
       </c>
     </row>
   </sheetData>
@@ -17319,28 +17319,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>422.6897264329875</v>
+        <v>463.5806750439713</v>
       </c>
       <c r="AB2" t="n">
-        <v>578.342731460252</v>
+        <v>634.2915313311343</v>
       </c>
       <c r="AC2" t="n">
-        <v>523.1465128788067</v>
+        <v>573.7556378146454</v>
       </c>
       <c r="AD2" t="n">
-        <v>422689.7264329875</v>
+        <v>463580.6750439713</v>
       </c>
       <c r="AE2" t="n">
-        <v>578342.7314602521</v>
+        <v>634291.5313311343</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.42051710280114e-06</v>
+        <v>5.261855069961381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.377083333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>523146.5128788066</v>
+        <v>573755.6378146454</v>
       </c>
     </row>
     <row r="3">
@@ -17425,28 +17425,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>423.4771706095075</v>
+        <v>464.3681192204912</v>
       </c>
       <c r="AB3" t="n">
-        <v>579.420147322152</v>
+        <v>635.3689471930342</v>
       </c>
       <c r="AC3" t="n">
-        <v>524.1211016830093</v>
+        <v>574.7302266188483</v>
       </c>
       <c r="AD3" t="n">
-        <v>423477.1706095075</v>
+        <v>464368.1192204911</v>
       </c>
       <c r="AE3" t="n">
-        <v>579420.147322152</v>
+        <v>635368.9471930341</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.428916914276867e-06</v>
+        <v>5.280115048603598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.352083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>524121.1016830094</v>
+        <v>574730.2266188483</v>
       </c>
     </row>
     <row r="4">
@@ -17531,28 +17531,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>426.6788197459438</v>
+        <v>467.5697683569276</v>
       </c>
       <c r="AB4" t="n">
-        <v>583.8007849174154</v>
+        <v>639.7495847882975</v>
       </c>
       <c r="AC4" t="n">
-        <v>528.0836573744444</v>
+        <v>578.6927823102832</v>
       </c>
       <c r="AD4" t="n">
-        <v>426678.8197459438</v>
+        <v>467569.7683569276</v>
       </c>
       <c r="AE4" t="n">
-        <v>583800.7849174154</v>
+        <v>639749.5847882975</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.428916914276867e-06</v>
+        <v>5.280115048603598e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.352083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>528083.6573744444</v>
+        <v>578692.7823102832</v>
       </c>
     </row>
   </sheetData>
@@ -17828,28 +17828,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>469.2326584914709</v>
+        <v>507.2822573641843</v>
       </c>
       <c r="AB2" t="n">
-        <v>642.0248244319148</v>
+        <v>694.0859642393917</v>
       </c>
       <c r="AC2" t="n">
-        <v>580.7508762756327</v>
+        <v>627.8433739681526</v>
       </c>
       <c r="AD2" t="n">
-        <v>469232.6584914709</v>
+        <v>507282.2573641842</v>
       </c>
       <c r="AE2" t="n">
-        <v>642024.8244319148</v>
+        <v>694085.9642393917</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.085906219247501e-06</v>
+        <v>4.961384185860637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>580750.8762756326</v>
+        <v>627843.3739681526</v>
       </c>
     </row>
   </sheetData>
@@ -18125,28 +18125,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1116.214361024427</v>
+        <v>1173.745391184174</v>
       </c>
       <c r="AB2" t="n">
-        <v>1527.253732655769</v>
+        <v>1605.970226210257</v>
       </c>
       <c r="AC2" t="n">
-        <v>1381.494779925178</v>
+        <v>1452.698681814118</v>
       </c>
       <c r="AD2" t="n">
-        <v>1116214.361024427</v>
+        <v>1173745.391184174</v>
       </c>
       <c r="AE2" t="n">
-        <v>1527253.732655769</v>
+        <v>1605970.226210257</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.569317426043699e-06</v>
+        <v>3.045383177995677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.21354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1381494.779925178</v>
+        <v>1452698.681814118</v>
       </c>
     </row>
     <row r="3">
@@ -18231,28 +18231,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>500.8201085630734</v>
+        <v>546.827792913116</v>
       </c>
       <c r="AB3" t="n">
-        <v>685.2441671598274</v>
+        <v>748.1939106033391</v>
       </c>
       <c r="AC3" t="n">
-        <v>619.8454255923217</v>
+        <v>676.7873338721046</v>
       </c>
       <c r="AD3" t="n">
-        <v>500820.1085630734</v>
+        <v>546827.792913116</v>
       </c>
       <c r="AE3" t="n">
-        <v>685244.1671598274</v>
+        <v>748193.9106033391</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.394674683941376e-06</v>
+        <v>4.6470534757473e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>619845.4255923217</v>
+        <v>676787.3338721045</v>
       </c>
     </row>
     <row r="4">
@@ -18337,28 +18337,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>450.1451203367436</v>
+        <v>484.6296378941838</v>
       </c>
       <c r="AB4" t="n">
-        <v>615.9084126458648</v>
+        <v>663.0916509174975</v>
       </c>
       <c r="AC4" t="n">
-        <v>557.126978175829</v>
+        <v>599.807114408908</v>
       </c>
       <c r="AD4" t="n">
-        <v>450145.1203367436</v>
+        <v>484629.6378941837</v>
       </c>
       <c r="AE4" t="n">
-        <v>615908.4126458648</v>
+        <v>663091.6509174976</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.519616908664141e-06</v>
+        <v>4.889513632677636e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.361458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>557126.9781758289</v>
+        <v>599807.1144089079</v>
       </c>
     </row>
     <row r="5">
@@ -18443,28 +18443,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>451.0999434888608</v>
+        <v>485.5844610463009</v>
       </c>
       <c r="AB5" t="n">
-        <v>617.2148438064162</v>
+        <v>664.3980820780488</v>
       </c>
       <c r="AC5" t="n">
-        <v>558.3087253800049</v>
+        <v>600.9888616130838</v>
       </c>
       <c r="AD5" t="n">
-        <v>451099.9434888608</v>
+        <v>485584.4610463009</v>
       </c>
       <c r="AE5" t="n">
-        <v>617214.8438064161</v>
+        <v>664398.0820780488</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.523463652036147e-06</v>
+        <v>4.896978538987067e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.352083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>558308.725380005</v>
+        <v>600988.8616130839</v>
       </c>
     </row>
   </sheetData>
@@ -18740,28 +18740,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1840.074942403538</v>
+        <v>1923.897416477838</v>
       </c>
       <c r="AB2" t="n">
-        <v>2517.671714573697</v>
+        <v>2632.361321588719</v>
       </c>
       <c r="AC2" t="n">
-        <v>2277.388659709228</v>
+        <v>2381.13245159861</v>
       </c>
       <c r="AD2" t="n">
-        <v>1840074.942403538</v>
+        <v>1923897.416477838</v>
       </c>
       <c r="AE2" t="n">
-        <v>2517671.714573697</v>
+        <v>2632361.321588719</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.200869286912863e-06</v>
+        <v>2.253301798301425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.86145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2277388.659709228</v>
+        <v>2381132.45159861</v>
       </c>
     </row>
     <row r="3">
@@ -18846,28 +18846,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>690.4876059291454</v>
+        <v>738.2643365450512</v>
       </c>
       <c r="AB3" t="n">
-        <v>944.7556045955195</v>
+        <v>1010.125835184798</v>
       </c>
       <c r="AC3" t="n">
-        <v>854.5894556657413</v>
+        <v>913.7208431952741</v>
       </c>
       <c r="AD3" t="n">
-        <v>690487.6059291454</v>
+        <v>738264.3365450512</v>
       </c>
       <c r="AE3" t="n">
-        <v>944755.6045955195</v>
+        <v>1010125.835184798</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.089770555593269e-06</v>
+        <v>3.921229231418729e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>854589.4556657413</v>
+        <v>913720.8431952741</v>
       </c>
     </row>
     <row r="4">
@@ -18952,28 +18952,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>509.1717701056386</v>
+        <v>545.0470108719913</v>
       </c>
       <c r="AB4" t="n">
-        <v>696.6712789316684</v>
+        <v>745.7573660521135</v>
       </c>
       <c r="AC4" t="n">
-        <v>630.1819498547103</v>
+        <v>674.583329713136</v>
       </c>
       <c r="AD4" t="n">
-        <v>509171.7701056386</v>
+        <v>545047.0108719914</v>
       </c>
       <c r="AE4" t="n">
-        <v>696671.2789316685</v>
+        <v>745757.3660521135</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.422645175808033e-06</v>
+        <v>4.545832582102356e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.375</v>
       </c>
       <c r="AH4" t="n">
-        <v>630181.9498547103</v>
+        <v>674583.329713136</v>
       </c>
     </row>
     <row r="5">
@@ -19058,28 +19058,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>479.9443045509732</v>
+        <v>515.8195453173259</v>
       </c>
       <c r="AB5" t="n">
-        <v>656.6809711349981</v>
+        <v>705.767058255443</v>
       </c>
       <c r="AC5" t="n">
-        <v>594.0082609074047</v>
+        <v>638.4096407658303</v>
       </c>
       <c r="AD5" t="n">
-        <v>479944.3045509732</v>
+        <v>515819.545317326</v>
       </c>
       <c r="AE5" t="n">
-        <v>656680.9711349981</v>
+        <v>705767.058255443</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.488182183440517e-06</v>
+        <v>4.668805713951872e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.207291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>594008.2609074047</v>
+        <v>638409.6407658303</v>
       </c>
     </row>
     <row r="6">
@@ -19164,28 +19164,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>481.944295214775</v>
+        <v>517.8195359811278</v>
       </c>
       <c r="AB6" t="n">
-        <v>659.4174465945727</v>
+        <v>708.5035337150175</v>
       </c>
       <c r="AC6" t="n">
-        <v>596.4835709897849</v>
+        <v>640.8849508482105</v>
       </c>
       <c r="AD6" t="n">
-        <v>481944.295214775</v>
+        <v>517819.5359811279</v>
       </c>
       <c r="AE6" t="n">
-        <v>659417.4465945726</v>
+        <v>708503.5337150175</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.488330457213441e-06</v>
+        <v>4.669083933707187e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.207291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>596483.5709897849</v>
+        <v>640884.9508482105</v>
       </c>
     </row>
     <row r="7">
@@ -19270,28 +19270,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>482.7542880633475</v>
+        <v>518.6295288297003</v>
       </c>
       <c r="AB7" t="n">
-        <v>660.5257145443521</v>
+        <v>709.6118016647969</v>
       </c>
       <c r="AC7" t="n">
-        <v>597.4860674019011</v>
+        <v>641.8874472603267</v>
       </c>
       <c r="AD7" t="n">
-        <v>482754.2880633475</v>
+        <v>518629.5288297003</v>
       </c>
       <c r="AE7" t="n">
-        <v>660525.7145443521</v>
+        <v>709611.8016647969</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.492333849082394e-06</v>
+        <v>4.67659586710071e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.196874999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>597486.0674019011</v>
+        <v>641887.4472603267</v>
       </c>
     </row>
   </sheetData>
@@ -19567,28 +19567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>534.176293953167</v>
+        <v>579.977348277885</v>
       </c>
       <c r="AB2" t="n">
-        <v>730.8835715815947</v>
+        <v>793.5505947085841</v>
       </c>
       <c r="AC2" t="n">
-        <v>661.129069311382</v>
+        <v>717.8152397048507</v>
       </c>
       <c r="AD2" t="n">
-        <v>534176.293953167</v>
+        <v>579977.348277885</v>
       </c>
       <c r="AE2" t="n">
-        <v>730883.5715815946</v>
+        <v>793550.594708584</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.773770173430512e-06</v>
+        <v>4.436064593161966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.18958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>661129.0693113819</v>
+        <v>717815.2397048507</v>
       </c>
     </row>
   </sheetData>
@@ -19864,28 +19864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>560.0082811664898</v>
+        <v>603.2640690638616</v>
       </c>
       <c r="AB2" t="n">
-        <v>766.2280361137081</v>
+        <v>825.4125134255722</v>
       </c>
       <c r="AC2" t="n">
-        <v>693.1003077548179</v>
+        <v>746.6363016179732</v>
       </c>
       <c r="AD2" t="n">
-        <v>560008.2811664898</v>
+        <v>603264.0690638616</v>
       </c>
       <c r="AE2" t="n">
-        <v>766228.036113708</v>
+        <v>825412.5134255722</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.182664387135632e-06</v>
+        <v>4.494724667054214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.793749999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>693100.3077548179</v>
+        <v>746636.3016179733</v>
       </c>
     </row>
     <row r="3">
@@ -19970,28 +19970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>420.2028840148687</v>
+        <v>463.3733310576688</v>
       </c>
       <c r="AB3" t="n">
-        <v>574.9401239520377</v>
+        <v>634.0078341417041</v>
       </c>
       <c r="AC3" t="n">
-        <v>520.0686454555864</v>
+        <v>573.4990162868031</v>
       </c>
       <c r="AD3" t="n">
-        <v>420202.8840148687</v>
+        <v>463373.3310576688</v>
       </c>
       <c r="AE3" t="n">
-        <v>574940.1239520377</v>
+        <v>634007.834141704</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.512039972116372e-06</v>
+        <v>5.173002360713376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.771875000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>520068.6454555864</v>
+        <v>573499.0162868031</v>
       </c>
     </row>
     <row r="4">
@@ -20076,28 +20076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>421.8493701260717</v>
+        <v>465.0198171688718</v>
       </c>
       <c r="AB4" t="n">
-        <v>577.1929188872263</v>
+        <v>636.2606290768927</v>
       </c>
       <c r="AC4" t="n">
-        <v>522.1064368039781</v>
+        <v>575.5368076351948</v>
       </c>
       <c r="AD4" t="n">
-        <v>421849.3701260717</v>
+        <v>465019.8171688718</v>
       </c>
       <c r="AE4" t="n">
-        <v>577192.9188872263</v>
+        <v>636260.6290768926</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.515305967009587e-06</v>
+        <v>5.179727969971275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.7625</v>
       </c>
       <c r="AH4" t="n">
-        <v>522106.4368039782</v>
+        <v>575536.8076351949</v>
       </c>
     </row>
     <row r="5">
@@ -20182,28 +20182,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>423.4995477172342</v>
+        <v>466.6699947600342</v>
       </c>
       <c r="AB5" t="n">
-        <v>579.450764668152</v>
+        <v>638.5184748578185</v>
       </c>
       <c r="AC5" t="n">
-        <v>524.148796952479</v>
+        <v>577.5791677836955</v>
       </c>
       <c r="AD5" t="n">
-        <v>423499.5477172342</v>
+        <v>466669.9947600343</v>
       </c>
       <c r="AE5" t="n">
-        <v>579450.7646681521</v>
+        <v>638518.4748578186</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.518408662158141e-06</v>
+        <v>5.186117298766279e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.754166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>524148.7969524789</v>
+        <v>577579.1677836955</v>
       </c>
     </row>
   </sheetData>
@@ -20479,28 +20479,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>864.9524894688335</v>
+        <v>909.9978082924789</v>
       </c>
       <c r="AB2" t="n">
-        <v>1183.466155101966</v>
+        <v>1245.099147575691</v>
       </c>
       <c r="AC2" t="n">
-        <v>1070.517806264215</v>
+        <v>1126.268632438695</v>
       </c>
       <c r="AD2" t="n">
-        <v>864952.4894688335</v>
+        <v>909997.8082924789</v>
       </c>
       <c r="AE2" t="n">
-        <v>1183466.155101966</v>
+        <v>1245099.147575691</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.786992659527353e-06</v>
+        <v>3.540361464928132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.165625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1070517.806264215</v>
+        <v>1126268.632438695</v>
       </c>
     </row>
     <row r="3">
@@ -20585,28 +20585,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>438.9736993407025</v>
+        <v>472.8429621815948</v>
       </c>
       <c r="AB3" t="n">
-        <v>600.6231815907706</v>
+        <v>646.9646012161002</v>
       </c>
       <c r="AC3" t="n">
-        <v>543.3005481196765</v>
+        <v>585.2192076965554</v>
       </c>
       <c r="AD3" t="n">
-        <v>438973.6993407025</v>
+        <v>472842.9621815948</v>
       </c>
       <c r="AE3" t="n">
-        <v>600623.1815907706</v>
+        <v>646964.6012161002</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.517291876798562e-06</v>
+        <v>4.987218671033285e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.506250000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>543300.5481196765</v>
+        <v>585219.2076965554</v>
       </c>
     </row>
     <row r="4">
@@ -20691,28 +20691,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>436.6126652521524</v>
+        <v>470.3113358924525</v>
       </c>
       <c r="AB4" t="n">
-        <v>597.3927105893437</v>
+        <v>643.5007184398263</v>
       </c>
       <c r="AC4" t="n">
-        <v>540.3783887366312</v>
+        <v>582.0859130308592</v>
       </c>
       <c r="AD4" t="n">
-        <v>436612.6652521524</v>
+        <v>470311.3358924525</v>
       </c>
       <c r="AE4" t="n">
-        <v>597392.7105893437</v>
+        <v>643500.7184398263</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.530498579543617e-06</v>
+        <v>5.013383580680827e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.471875000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>540378.3887366313</v>
+        <v>582085.9130308592</v>
       </c>
     </row>
     <row r="5">
@@ -20797,28 +20797,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>438.6786326320798</v>
+        <v>472.3773032723799</v>
       </c>
       <c r="AB5" t="n">
-        <v>600.2194583026085</v>
+        <v>646.3274661530911</v>
       </c>
       <c r="AC5" t="n">
-        <v>542.9353556155073</v>
+        <v>584.6428799097354</v>
       </c>
       <c r="AD5" t="n">
-        <v>438678.6326320798</v>
+        <v>472377.3032723799</v>
       </c>
       <c r="AE5" t="n">
-        <v>600219.4583026085</v>
+        <v>646327.4661530911</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.530655802195344e-06</v>
+        <v>5.01369506770044e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.471875000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>542935.3556155073</v>
+        <v>584642.8799097354</v>
       </c>
     </row>
   </sheetData>
